--- a/Code/Results/Cases/Case_3_105/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_105/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.79738478854439</v>
+        <v>20.75849094258156</v>
       </c>
       <c r="C2">
-        <v>18.43103317394577</v>
+        <v>10.12805355882275</v>
       </c>
       <c r="D2">
-        <v>3.864101474712319</v>
+        <v>6.467920147422119</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.65278451309825</v>
+        <v>35.40359363320086</v>
       </c>
       <c r="G2">
-        <v>2.059560357876898</v>
+        <v>3.672526356768738</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.92982890060497</v>
+        <v>27.92570568027111</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.108688377647869</v>
+        <v>10.75703469696627</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.98133628357008</v>
+        <v>18.63971877444789</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.88742713246356</v>
+        <v>20.22724841127363</v>
       </c>
       <c r="C3">
-        <v>17.13164401229552</v>
+        <v>9.458311091792739</v>
       </c>
       <c r="D3">
-        <v>3.964838375825577</v>
+        <v>6.497985263345234</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32.93714850190663</v>
+        <v>35.1294210752789</v>
       </c>
       <c r="G3">
-        <v>2.071124518167889</v>
+        <v>3.676593035323175</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.33413828061667</v>
+        <v>27.91394961070971</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.810944149531165</v>
+        <v>10.73514770621622</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.26591872009842</v>
+        <v>18.71375881098562</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.65670003982506</v>
+        <v>19.90006335050689</v>
       </c>
       <c r="C4">
-        <v>16.29461969127363</v>
+        <v>9.021638504189058</v>
       </c>
       <c r="D4">
-        <v>4.028631841607458</v>
+        <v>6.517380437600713</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.88403036182023</v>
+        <v>34.97206906234909</v>
       </c>
       <c r="G4">
-        <v>2.078374574797058</v>
+        <v>3.679218369640668</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.98839666781897</v>
+        <v>27.91445564673154</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.629344622334171</v>
+        <v>10.72405592769416</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.44329839357661</v>
+        <v>18.76120133611924</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.14040231794113</v>
+        <v>19.76669971709113</v>
       </c>
       <c r="C5">
-        <v>15.94348713839762</v>
+        <v>8.83727200409861</v>
       </c>
       <c r="D5">
-        <v>4.055100615732723</v>
+        <v>6.525519491971831</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.45531757229871</v>
+        <v>34.91076418560796</v>
       </c>
       <c r="G5">
-        <v>2.081369748998169</v>
+        <v>3.680320623928991</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.85244607059222</v>
+        <v>27.91659832118633</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.555715349079141</v>
+        <v>10.72012839855745</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.51629551580466</v>
+        <v>18.78103430432746</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.05377494130602</v>
+        <v>19.74455932904738</v>
       </c>
       <c r="C6">
-        <v>15.88457048725034</v>
+        <v>8.806269830280259</v>
       </c>
       <c r="D6">
-        <v>4.059523905517307</v>
+        <v>6.526885198250223</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.38416936826167</v>
+        <v>34.90075616327469</v>
       </c>
       <c r="G6">
-        <v>2.081869640285826</v>
+        <v>3.680505613600339</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.83016731323164</v>
+        <v>27.91707086846773</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.543514024176752</v>
+        <v>10.71951207578068</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.52846110027229</v>
+        <v>18.78435778026279</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.64979707343944</v>
+        <v>19.89826460137211</v>
       </c>
       <c r="C7">
-        <v>16.28992507109123</v>
+        <v>9.019178088826694</v>
       </c>
       <c r="D7">
-        <v>4.028986912933337</v>
+        <v>6.517489250473531</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.87824624858158</v>
+        <v>34.97123081003471</v>
       </c>
       <c r="G7">
-        <v>2.078414799993566</v>
+        <v>3.679233103637027</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.98654330381617</v>
+        <v>27.91447671195526</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.628350020947071</v>
+        <v>10.72400055815159</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.44427990696435</v>
+        <v>18.76146678513027</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.15075197939062</v>
+        <v>20.57565445837599</v>
       </c>
       <c r="C8">
-        <v>17.99102382350499</v>
+        <v>9.902396068041282</v>
       </c>
       <c r="D8">
-        <v>3.898421773869665</v>
+        <v>6.478092662558245</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.0613640879393</v>
+        <v>35.30681171235497</v>
       </c>
       <c r="G8">
-        <v>2.063518575380442</v>
+        <v>3.673901979905101</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.72022624235518</v>
+        <v>27.92004588680834</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.00581129240973</v>
+        <v>10.74900249472341</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.07894113383226</v>
+        <v>18.66483736883295</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.60468401414053</v>
+        <v>21.8869491207778</v>
       </c>
       <c r="C9">
-        <v>21.02497857433249</v>
+        <v>11.43337511996887</v>
       </c>
       <c r="D9">
-        <v>3.65881165324211</v>
+        <v>6.408244818876832</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>38.33402167131773</v>
+        <v>36.0494566194727</v>
       </c>
       <c r="G9">
-        <v>2.035339085868267</v>
+        <v>3.664460449856211</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.32209892807145</v>
+        <v>27.99245774308825</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.753287972033826</v>
+        <v>10.81653002123228</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.38120994982875</v>
+        <v>18.49100282987307</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.61852481414529</v>
+        <v>22.82849582077362</v>
       </c>
       <c r="C10">
-        <v>23.08412047588214</v>
+        <v>12.43692161156065</v>
       </c>
       <c r="D10">
-        <v>3.494911506887329</v>
+        <v>6.361429349301098</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>41.46234723058325</v>
+        <v>36.64273515748153</v>
       </c>
       <c r="G10">
-        <v>2.015020924238573</v>
+        <v>3.658133019832367</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.60558791321567</v>
+        <v>28.08333162352291</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.304790160220371</v>
+        <v>10.87722414233331</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.87668033608144</v>
+        <v>18.37273307190751</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.93778216571675</v>
+        <v>23.24990386895447</v>
       </c>
       <c r="C11">
-        <v>23.98760935134539</v>
+        <v>12.86740471487808</v>
       </c>
       <c r="D11">
-        <v>3.423734574146891</v>
+        <v>6.341106546144506</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>42.88460019162007</v>
+        <v>36.92205674469118</v>
       </c>
       <c r="G11">
-        <v>2.005797888247293</v>
+        <v>3.655385057722482</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.21474539078882</v>
+        <v>28.13286120245172</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.556092521592232</v>
+        <v>10.9071895579083</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.64817326452245</v>
+        <v>18.32095953344001</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.43032718274599</v>
+        <v>23.4083233500663</v>
       </c>
       <c r="C12">
-        <v>24.32530725154433</v>
+        <v>13.02669516894596</v>
       </c>
       <c r="D12">
-        <v>3.397358727193299</v>
+        <v>6.333550734874353</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>43.42335229272803</v>
+        <v>37.02910251857443</v>
       </c>
       <c r="G12">
-        <v>2.002302041170127</v>
+        <v>3.654363095276061</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.44928764494005</v>
+        <v>28.15279250621844</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.651332346532621</v>
+        <v>10.91887013779159</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.56172772230223</v>
+        <v>18.30164435699067</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.32455420436846</v>
+        <v>23.3742589010078</v>
       </c>
       <c r="C13">
-        <v>24.25276917087417</v>
+        <v>12.99255443914852</v>
       </c>
       <c r="D13">
-        <v>3.403011811879295</v>
+        <v>6.335171788063436</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>43.30730820140793</v>
+        <v>37.00599305822108</v>
       </c>
       <c r="G13">
-        <v>2.00305518762106</v>
+        <v>3.654582366497933</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.39859843114301</v>
+        <v>28.14844771433924</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.630816816930226</v>
+        <v>10.9163397816342</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.58034246420874</v>
+        <v>18.3057913330996</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.97844243649221</v>
+        <v>23.26296125505872</v>
       </c>
       <c r="C14">
-        <v>24.01547868050528</v>
+        <v>12.88058416133245</v>
       </c>
       <c r="D14">
-        <v>3.421552426644658</v>
+        <v>6.340482119444252</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>42.92891788238487</v>
+        <v>36.93083844872226</v>
       </c>
       <c r="G14">
-        <v>2.005510386896048</v>
+        <v>3.655300607562574</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.23396227269125</v>
+        <v>28.13447742211881</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.563926240836199</v>
+        <v>10.90814387830964</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.64105996821318</v>
+        <v>18.31936465069797</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.76553685587698</v>
+        <v>23.19463266797792</v>
       </c>
       <c r="C15">
-        <v>23.86956501155511</v>
+        <v>12.81151472208316</v>
       </c>
       <c r="D15">
-        <v>3.432987443006912</v>
+        <v>6.343753081379272</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>42.69717719300348</v>
+        <v>36.8849672859664</v>
       </c>
       <c r="G15">
-        <v>2.00701364271585</v>
+        <v>3.655742973645043</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.13362941992414</v>
+        <v>28.12607320872588</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.522964737135339</v>
+        <v>10.90316689246076</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.67826053160203</v>
+        <v>18.32771647264815</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.53130081294523</v>
+        <v>22.80080238765182</v>
       </c>
       <c r="C16">
-        <v>23.02443514491958</v>
+        <v>12.40826631553049</v>
       </c>
       <c r="D16">
-        <v>3.499638312585196</v>
+        <v>6.362777083665111</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>41.36940466117552</v>
+        <v>36.62466358490032</v>
       </c>
       <c r="G16">
-        <v>2.015623565254176</v>
+        <v>3.658315219454664</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.56630535098472</v>
+        <v>28.08025940676848</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.288376349047583</v>
+        <v>10.87531277960348</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.891628943921</v>
+        <v>18.37615729243036</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.76115751458817</v>
+        <v>22.55730938006644</v>
       </c>
       <c r="C17">
-        <v>22.49769625461062</v>
+        <v>12.15423223833088</v>
       </c>
       <c r="D17">
-        <v>3.541449250907818</v>
+        <v>6.374697068990559</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>40.55480791228423</v>
+        <v>36.46733356714605</v>
       </c>
       <c r="G17">
-        <v>2.02090644831504</v>
+        <v>3.659926524572362</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.22489430959488</v>
+        <v>28.0542508176034</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.14457677846984</v>
+        <v>10.85882477838623</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.0227386308361</v>
+        <v>18.40639266067418</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.31329217677535</v>
+        <v>22.4166176315878</v>
       </c>
       <c r="C18">
-        <v>22.19157958386334</v>
+        <v>12.00566681955176</v>
       </c>
       <c r="D18">
-        <v>3.56580928553656</v>
+        <v>6.381644787421051</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>40.08616780326255</v>
+        <v>36.37773492200435</v>
       </c>
       <c r="G18">
-        <v>2.023947300415336</v>
+        <v>3.660865587491614</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.03088739551804</v>
+        <v>28.04006253952751</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.061904449353255</v>
+        <v>10.84956336583013</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.09824771185729</v>
+        <v>18.42397420219207</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.16079955792877</v>
+        <v>22.36887699217103</v>
       </c>
       <c r="C19">
-        <v>22.08738290796039</v>
+        <v>11.95494343378225</v>
       </c>
       <c r="D19">
-        <v>3.574108327140185</v>
+        <v>6.384012909408507</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>39.92746960771512</v>
+        <v>36.34755432361965</v>
       </c>
       <c r="G19">
-        <v>2.024977444826531</v>
+        <v>3.661185651392647</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.96559986830693</v>
+        <v>28.03539112546769</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.033919290394236</v>
+        <v>10.84646590366549</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.12383249124509</v>
+        <v>18.42995984643348</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.84364483253442</v>
+        <v>22.58329721018989</v>
       </c>
       <c r="C20">
-        <v>22.55409221605044</v>
+        <v>12.18152820226887</v>
       </c>
       <c r="D20">
-        <v>3.536965593302403</v>
+        <v>6.373418680288943</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>40.64153239248964</v>
+        <v>36.48398975143267</v>
       </c>
       <c r="G20">
-        <v>2.020343882348184</v>
+        <v>3.659753728055677</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.26099198266778</v>
+        <v>28.0569396741379</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.159880569513474</v>
+        <v>10.86055701035524</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.00877204580666</v>
+        <v>18.40315430008492</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.08029103290662</v>
+        <v>23.29568476765649</v>
       </c>
       <c r="C21">
-        <v>24.0852940031806</v>
+        <v>12.91357346184258</v>
       </c>
       <c r="D21">
-        <v>3.416090066914369</v>
+        <v>6.338918547169513</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>43.04005239409926</v>
+        <v>36.95287932122488</v>
       </c>
       <c r="G21">
-        <v>2.004789377745471</v>
+        <v>3.655089138083226</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.2822127970313</v>
+        <v>28.1385489580279</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.583571290657101</v>
+        <v>10.910542212523</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.62322392339074</v>
+        <v>18.3153699686898</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.50133404408221</v>
+        <v>23.75445073481101</v>
       </c>
       <c r="C22">
-        <v>25.06037520942203</v>
+        <v>13.37030925166524</v>
       </c>
       <c r="D22">
-        <v>3.34051971296781</v>
+        <v>6.317186706186324</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>44.60889899180678</v>
+        <v>37.26670354185335</v>
       </c>
       <c r="G22">
-        <v>1.994600951915815</v>
+        <v>3.652149098870814</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.97233668003662</v>
+        <v>28.19873505019195</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.860950967936081</v>
+        <v>10.94515049809392</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.37171586784401</v>
+        <v>18.25968956986924</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.74647135802642</v>
+        <v>23.51027397169618</v>
       </c>
       <c r="C23">
-        <v>24.5421763291224</v>
+        <v>13.1285196461028</v>
       </c>
       <c r="D23">
-        <v>3.380501599197029</v>
+        <v>6.328710740372431</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>43.77132061945058</v>
+        <v>37.09856304601414</v>
       </c>
       <c r="G23">
-        <v>2.000043045913715</v>
+        <v>3.653708362168267</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.60183489123002</v>
+        <v>28.16598700842701</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.712853544893076</v>
+        <v>10.92650378384164</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.50592668266724</v>
+        <v>18.28925287082201</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.80636823092103</v>
+        <v>22.57155029345879</v>
       </c>
       <c r="C24">
-        <v>22.52860586692607</v>
+        <v>12.16919554098419</v>
       </c>
       <c r="D24">
-        <v>3.538991657302359</v>
+        <v>6.373996344661339</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>40.60232526458184</v>
+        <v>36.47645682888835</v>
       </c>
       <c r="G24">
-        <v>2.020598206595186</v>
+        <v>3.659831809787299</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.24466515563368</v>
+        <v>28.05572166099042</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.152961726648664</v>
+        <v>10.85977318961016</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.01508592207325</v>
+        <v>18.40461774351326</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.44647354796228</v>
+        <v>21.53526547527684</v>
       </c>
       <c r="C25">
-        <v>20.23516676735616</v>
+        <v>11.0405925837945</v>
       </c>
       <c r="D25">
-        <v>3.721697475781466</v>
+        <v>6.426348976573165</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>37.18009315488332</v>
+        <v>35.83988112224133</v>
       </c>
       <c r="G25">
-        <v>2.042875332992444</v>
+        <v>3.666907053035307</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.87062397434384</v>
+        <v>27.96626011583165</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.550572181107855</v>
+        <v>10.79629976739141</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.56829732114343</v>
+        <v>18.53636379482689</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_105/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_105/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.75849094258156</v>
+        <v>26.79738478854441</v>
       </c>
       <c r="C2">
-        <v>10.12805355882275</v>
+        <v>18.43103317394583</v>
       </c>
       <c r="D2">
-        <v>6.467920147422119</v>
+        <v>3.864101474712255</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.40359363320086</v>
+        <v>34.65278451309828</v>
       </c>
       <c r="G2">
-        <v>3.672526356768738</v>
+        <v>2.059560357876898</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.92570568027111</v>
+        <v>21.92982890060497</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.75703469696627</v>
+        <v>8.108688377647919</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.63971877444789</v>
+        <v>11.98133628357006</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.22724841127363</v>
+        <v>24.88742713246357</v>
       </c>
       <c r="C3">
-        <v>9.458311091792739</v>
+        <v>17.13164401229558</v>
       </c>
       <c r="D3">
-        <v>6.497985263345234</v>
+        <v>3.964838375825645</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.1294210752789</v>
+        <v>32.93714850190663</v>
       </c>
       <c r="G3">
-        <v>3.676593035323175</v>
+        <v>2.071124518168024</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.91394961070971</v>
+        <v>21.33413828061673</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.73514770621622</v>
+        <v>7.810944149531153</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.71375881098562</v>
+        <v>12.26591872009846</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.90006335050689</v>
+        <v>23.65670003982508</v>
       </c>
       <c r="C4">
-        <v>9.021638504189058</v>
+        <v>16.29461969127387</v>
       </c>
       <c r="D4">
-        <v>6.517380437600713</v>
+        <v>4.028631841607157</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.97206906234909</v>
+        <v>31.88403036182028</v>
       </c>
       <c r="G4">
-        <v>3.679218369640668</v>
+        <v>2.078374574797455</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.91445564673154</v>
+        <v>20.988396667819</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.72405592769416</v>
+        <v>7.62934462233416</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.76120133611924</v>
+        <v>12.44329839357659</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.76669971709113</v>
+        <v>23.14040231794113</v>
       </c>
       <c r="C5">
-        <v>8.83727200409861</v>
+        <v>15.94348713839777</v>
       </c>
       <c r="D5">
-        <v>6.525519491971831</v>
+        <v>4.055100615732476</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.91076418560796</v>
+        <v>31.45531757229881</v>
       </c>
       <c r="G5">
-        <v>3.680320623928991</v>
+        <v>2.081369748998301</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.91659832118633</v>
+        <v>20.85244607059228</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.72012839855745</v>
+        <v>7.555715349079114</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.78103430432746</v>
+        <v>12.51629551580467</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.74455932904738</v>
+        <v>23.053774941306</v>
       </c>
       <c r="C6">
-        <v>8.806269830280259</v>
+        <v>15.88457048725022</v>
       </c>
       <c r="D6">
-        <v>6.526885198250223</v>
+        <v>4.059523905517378</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.90075616327469</v>
+        <v>31.38416936826183</v>
       </c>
       <c r="G6">
-        <v>3.680505613600339</v>
+        <v>2.081869640285562</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.91707086846773</v>
+        <v>20.83016731323178</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.71951207578068</v>
+        <v>7.543514024176741</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.78435778026279</v>
+        <v>12.5284611002724</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.89826460137211</v>
+        <v>23.6497970734395</v>
       </c>
       <c r="C7">
-        <v>9.019178088826694</v>
+        <v>16.28992507109104</v>
       </c>
       <c r="D7">
-        <v>6.517489250473531</v>
+        <v>4.0289869129334</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.97123081003471</v>
+        <v>31.87824624858165</v>
       </c>
       <c r="G7">
-        <v>3.679233103637027</v>
+        <v>2.078414799993433</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.91447671195526</v>
+        <v>20.98654330381616</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.72400055815159</v>
+        <v>7.628350020947074</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.76146678513027</v>
+        <v>12.44427990696432</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.57565445837599</v>
+        <v>26.1507519793907</v>
       </c>
       <c r="C8">
-        <v>9.902396068041282</v>
+        <v>17.99102382350511</v>
       </c>
       <c r="D8">
-        <v>6.478092662558245</v>
+        <v>3.898421773869551</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.30681171235497</v>
+        <v>34.06136408793927</v>
       </c>
       <c r="G8">
-        <v>3.673901979905101</v>
+        <v>2.06351857538044</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.92004588680834</v>
+        <v>21.72022624235511</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.74900249472341</v>
+        <v>8.00581129240968</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.66483736883295</v>
+        <v>12.0789411338322</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.8869491207778</v>
+        <v>30.60468401414066</v>
       </c>
       <c r="C9">
-        <v>11.43337511996887</v>
+        <v>21.02497857433271</v>
       </c>
       <c r="D9">
-        <v>6.408244818876832</v>
+        <v>3.658811653241981</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>36.0494566194727</v>
+        <v>38.33402167131775</v>
       </c>
       <c r="G9">
-        <v>3.664460449856211</v>
+        <v>2.035339085868</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.99245774308825</v>
+        <v>23.32209892807134</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.81653002123228</v>
+        <v>8.753287972033819</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.49100282987307</v>
+        <v>11.38120994982857</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.82849582077362</v>
+        <v>33.61852481414543</v>
       </c>
       <c r="C10">
-        <v>12.43692161156065</v>
+        <v>23.08412047588211</v>
       </c>
       <c r="D10">
-        <v>6.361429349301098</v>
+        <v>3.494911506887338</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>36.64273515748153</v>
+        <v>41.46234723058333</v>
       </c>
       <c r="G10">
-        <v>3.658133019832367</v>
+        <v>2.015020924238704</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.08333162352291</v>
+        <v>24.60558791321566</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.87722414233331</v>
+        <v>9.304790160220355</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.37273307190751</v>
+        <v>10.87668033608138</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.24990386895447</v>
+        <v>34.93778216571678</v>
       </c>
       <c r="C11">
-        <v>12.86740471487808</v>
+        <v>23.98760935134541</v>
       </c>
       <c r="D11">
-        <v>6.341106546144506</v>
+        <v>3.42373457414695</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.92205674469118</v>
+        <v>42.88460019162008</v>
       </c>
       <c r="G11">
-        <v>3.655385057722482</v>
+        <v>2.005797888247288</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.13286120245172</v>
+        <v>25.21474539078884</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.9071895579083</v>
+        <v>9.556092521592245</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.32095953344001</v>
+        <v>10.64817326452248</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.4083233500663</v>
+        <v>35.43032718274596</v>
       </c>
       <c r="C12">
-        <v>13.02669516894596</v>
+        <v>24.3253072515443</v>
       </c>
       <c r="D12">
-        <v>6.333550734874353</v>
+        <v>3.397358727193215</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>37.02910251857443</v>
+        <v>43.423352292728</v>
       </c>
       <c r="G12">
-        <v>3.654363095276061</v>
+        <v>2.002302041170394</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.15279250621844</v>
+        <v>25.44928764494006</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.91887013779159</v>
+        <v>9.651332346532621</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.30164435699067</v>
+        <v>10.56172772230223</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.3742589010078</v>
+        <v>35.32455420436861</v>
       </c>
       <c r="C13">
-        <v>12.99255443914852</v>
+        <v>24.25276917087432</v>
       </c>
       <c r="D13">
-        <v>6.335171788063436</v>
+        <v>3.403011811879231</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>37.00599305822108</v>
+        <v>43.30730820140808</v>
       </c>
       <c r="G13">
-        <v>3.654582366497933</v>
+        <v>2.003055187620927</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.14844771433924</v>
+        <v>25.39859843114304</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.9163397816342</v>
+        <v>9.630816816930238</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.3057913330996</v>
+        <v>10.58034246420865</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.26296125505872</v>
+        <v>34.97844243649229</v>
       </c>
       <c r="C14">
-        <v>12.88058416133245</v>
+        <v>24.01547868050551</v>
       </c>
       <c r="D14">
-        <v>6.340482119444252</v>
+        <v>3.421552426644732</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.93083844872226</v>
+        <v>42.928917882385</v>
       </c>
       <c r="G14">
-        <v>3.655300607562574</v>
+        <v>2.005510386895908</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.13447742211881</v>
+        <v>25.2339622726913</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.90814387830964</v>
+        <v>9.563926240836187</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.31936465069797</v>
+        <v>10.64105996821313</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.19463266797792</v>
+        <v>34.76553685587703</v>
       </c>
       <c r="C15">
-        <v>12.81151472208316</v>
+        <v>23.86956501155505</v>
       </c>
       <c r="D15">
-        <v>6.343753081379272</v>
+        <v>3.432987443006927</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.8849672859664</v>
+        <v>42.69717719300349</v>
       </c>
       <c r="G15">
-        <v>3.655742973645043</v>
+        <v>2.007013642715715</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.12607320872588</v>
+        <v>25.13362941992411</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.90316689246076</v>
+        <v>9.522964737135363</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.32771647264815</v>
+        <v>10.67826053160193</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.80080238765182</v>
+        <v>33.53130081294525</v>
       </c>
       <c r="C16">
-        <v>12.40826631553049</v>
+        <v>23.02443514491956</v>
       </c>
       <c r="D16">
-        <v>6.362777083665111</v>
+        <v>3.4996383125853</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36.62466358490032</v>
+        <v>41.36940466117554</v>
       </c>
       <c r="G16">
-        <v>3.658315219454664</v>
+        <v>2.015623565253913</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.08025940676848</v>
+        <v>24.56630535098473</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.87531277960348</v>
+        <v>9.28837634904756</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.37615729243036</v>
+        <v>10.89162894392097</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.55730938006644</v>
+        <v>32.76115751458831</v>
       </c>
       <c r="C17">
-        <v>12.15423223833088</v>
+        <v>22.49769625461077</v>
       </c>
       <c r="D17">
-        <v>6.374697068990559</v>
+        <v>3.541449250907985</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.46733356714605</v>
+        <v>40.55480791228433</v>
       </c>
       <c r="G17">
-        <v>3.659926524572362</v>
+        <v>2.02090644831491</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.0542508176034</v>
+        <v>24.22489430959488</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.85882477838623</v>
+        <v>9.144576778469812</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.40639266067418</v>
+        <v>11.02273863083601</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.4166176315878</v>
+        <v>32.31329217677537</v>
       </c>
       <c r="C18">
-        <v>12.00566681955176</v>
+        <v>22.19157958386351</v>
       </c>
       <c r="D18">
-        <v>6.381644787421051</v>
+        <v>3.565809285536397</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.37773492200435</v>
+        <v>40.08616780326257</v>
       </c>
       <c r="G18">
-        <v>3.660865587491614</v>
+        <v>2.023947300415332</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.04006253952751</v>
+        <v>24.03088739551805</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.84956336583013</v>
+        <v>9.061904449353266</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.42397420219207</v>
+        <v>11.09824771185729</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.36887699217103</v>
+        <v>32.16079955792868</v>
       </c>
       <c r="C19">
-        <v>11.95494343378225</v>
+        <v>22.08738290796025</v>
       </c>
       <c r="D19">
-        <v>6.384012909408507</v>
+        <v>3.57410832714041</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.34755432361965</v>
+        <v>39.92746960771511</v>
       </c>
       <c r="G19">
-        <v>3.661185651392647</v>
+        <v>2.024977444826392</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.03539112546769</v>
+        <v>23.96559986830699</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.84646590366549</v>
+        <v>9.033919290394236</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.42995984643348</v>
+        <v>11.12383249124515</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.58329721018989</v>
+        <v>32.84364483253444</v>
       </c>
       <c r="C20">
-        <v>12.18152820226887</v>
+        <v>22.55409221605032</v>
       </c>
       <c r="D20">
-        <v>6.373418680288943</v>
+        <v>3.53696559330246</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.48398975143267</v>
+        <v>40.64153239248963</v>
       </c>
       <c r="G20">
-        <v>3.659753728055677</v>
+        <v>2.020343882348187</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.0569396741379</v>
+        <v>24.2609919826678</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.86055701035524</v>
+        <v>9.159880569513485</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.40315430008492</v>
+        <v>11.00877204580666</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.29568476765649</v>
+        <v>35.08029103290653</v>
       </c>
       <c r="C21">
-        <v>12.91357346184258</v>
+        <v>24.08529400318072</v>
       </c>
       <c r="D21">
-        <v>6.338918547169513</v>
+        <v>3.416090066914434</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.95287932122488</v>
+        <v>43.04005239409921</v>
       </c>
       <c r="G21">
-        <v>3.655089138083226</v>
+        <v>2.004789377745601</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.1385489580279</v>
+        <v>25.28221279703133</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.910542212523</v>
+        <v>9.583571290657092</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.3153699686898</v>
+        <v>10.62322392339083</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.75445073481101</v>
+        <v>36.50133404408236</v>
       </c>
       <c r="C22">
-        <v>13.37030925166524</v>
+        <v>25.06037520942205</v>
       </c>
       <c r="D22">
-        <v>6.317186706186324</v>
+        <v>3.340519712967713</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.26670354185335</v>
+        <v>44.60889899180688</v>
       </c>
       <c r="G22">
-        <v>3.652149098870814</v>
+        <v>1.99460095191568</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.19873505019195</v>
+        <v>25.9723366800366</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.94515049809392</v>
+        <v>9.860950967936077</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.25968956986924</v>
+        <v>10.37171586784386</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.51027397169618</v>
+        <v>35.74647135802636</v>
       </c>
       <c r="C23">
-        <v>13.1285196461028</v>
+        <v>24.54217632912235</v>
       </c>
       <c r="D23">
-        <v>6.328710740372431</v>
+        <v>3.380501599197077</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>37.09856304601414</v>
+        <v>43.77132061945058</v>
       </c>
       <c r="G23">
-        <v>3.653708362168267</v>
+        <v>2.000043045913977</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.16598700842701</v>
+        <v>25.60183489123003</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.92650378384164</v>
+        <v>9.712853544893086</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.28925287082201</v>
+        <v>10.50592668266727</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.57155029345879</v>
+        <v>32.80636823092106</v>
       </c>
       <c r="C24">
-        <v>12.16919554098419</v>
+        <v>22.5286058669261</v>
       </c>
       <c r="D24">
-        <v>6.373996344661339</v>
+        <v>3.538991657302307</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.47645682888835</v>
+        <v>40.60232526458178</v>
       </c>
       <c r="G24">
-        <v>3.659831809787299</v>
+        <v>2.020598206595189</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.05572166099042</v>
+        <v>24.24466515563361</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.85977318961016</v>
+        <v>9.152961726648661</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.40461774351326</v>
+        <v>11.01508592207319</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.53526547527684</v>
+        <v>29.44647354796225</v>
       </c>
       <c r="C25">
-        <v>11.0405925837945</v>
+        <v>20.23516676735618</v>
       </c>
       <c r="D25">
-        <v>6.426348976573165</v>
+        <v>3.721697475781347</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.83988112224133</v>
+        <v>37.18009315488334</v>
       </c>
       <c r="G25">
-        <v>3.666907053035307</v>
+        <v>2.042875332992444</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.96626011583165</v>
+        <v>22.87062397434386</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.79629976739141</v>
+        <v>8.550572181107874</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.53636379482689</v>
+        <v>11.56829732114343</v>
       </c>
       <c r="O25">
         <v>0</v>
